--- a/Metroid/Resources/Animation_Clips.xlsx
+++ b/Metroid/Resources/Animation_Clips.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8BFD2E-0F63-4896-8CB2-456E4CDB16F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="A_character" sheetId="1" r:id="rId1"/>
+    <sheet name="Tile" sheetId="4" r:id="rId2"/>
+    <sheet name="A_Enemy" sheetId="2" r:id="rId3"/>
+    <sheet name="A_HUD" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">A_Enemy!$A$1:$L$1</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,22 +26,31 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="AnimationClipCharacterTemplate" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{08072380-BBFD-4800-AABE-A3DC6895CFEE}" name="Animation_Clip_Enemy" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\huynh\Desktop\NewMetroid-master\NewMetroid-master\Metroid\Resources\Animation_Clip_Enemy.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="2" xr16:uid="{E45A7CB6-D49C-4BD5-B832-8F1D6F1CA6CC}" name="Animation_Clip_HUD" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\huynh\Desktop\NewMetroid-master\NewMetroid-master\Metroid\Resources\Animation_Clip_HUD.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" xr16:uid="{04BE4E7D-C34E-4981-9FC9-92D0878471E4}" name="Animation_Clip_Tiles" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\huynh\Desktop\NewMetroid-master\NewMetroid-master\Metroid\Resources\Animation_Clip_Tiles.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="4" xr16:uid="{9B6691FD-ED4F-4891-8525-6070BC78C516}" name="Animation_Clip_Tiles1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\huynh\Desktop\NewMetroid-master\NewMetroid-master\Metroid\Resources\Animation_Clip_Tiles.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="AnimationClipCharacterTemplate" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\Project\Metroid\Metroid\Resources\AnimationClipCharacterTemplate.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="530">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>Walk</t>
-  </si>
-  <si>
     <t>count</t>
   </si>
   <si>
@@ -53,9 +69,6 @@
     <t>s2_21</t>
   </si>
   <si>
-    <t>idle</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -84,17 +97,1563 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>s2_0</t>
+  </si>
+  <si>
+    <t>s2_1</t>
+  </si>
+  <si>
+    <t>s2_2</t>
+  </si>
+  <si>
+    <t>char_appear</t>
+  </si>
+  <si>
+    <t>char_stand</t>
+  </si>
+  <si>
+    <t>s2_3</t>
+  </si>
+  <si>
+    <t>char_stand_shoot</t>
+  </si>
+  <si>
+    <t>char_shoot_up</t>
+  </si>
+  <si>
+    <t>s2_5</t>
+  </si>
+  <si>
+    <t>char_run</t>
+  </si>
+  <si>
+    <t>s2_6</t>
+  </si>
+  <si>
+    <t>s2_7</t>
+  </si>
+  <si>
+    <t>s2_8</t>
+  </si>
+  <si>
+    <t>char_jump</t>
+  </si>
+  <si>
+    <t>s2_9</t>
+  </si>
+  <si>
+    <t>char_flip</t>
+  </si>
+  <si>
+    <t>s2_10</t>
+  </si>
+  <si>
+    <t>s2_11</t>
+  </si>
+  <si>
+    <t>s2_12</t>
+  </si>
+  <si>
+    <t>s2_13</t>
+  </si>
+  <si>
+    <t>char_roll</t>
+  </si>
+  <si>
+    <t>s2_14</t>
+  </si>
+  <si>
+    <t>s2_15</t>
+  </si>
+  <si>
+    <t>s2_16</t>
+  </si>
+  <si>
+    <t>s2_17</t>
+  </si>
+  <si>
+    <t>char_run_shoot</t>
+  </si>
+  <si>
+    <t>char_jump_shoot</t>
+  </si>
+  <si>
+    <t>s2_22</t>
+  </si>
+  <si>
+    <t>char_run_shoot_up</t>
+  </si>
+  <si>
+    <t>s2_23</t>
+  </si>
+  <si>
+    <t>s2_24</t>
+  </si>
+  <si>
+    <t>s2_25</t>
+  </si>
+  <si>
+    <t>s2_26</t>
+  </si>
+  <si>
+    <t>char_jump_shoot_up</t>
+  </si>
+  <si>
+    <t>s2_27</t>
+  </si>
+  <si>
+    <t>s2_28</t>
+  </si>
+  <si>
+    <t>char_fire_stand</t>
+  </si>
+  <si>
+    <t>s2_29</t>
+  </si>
+  <si>
+    <t>char_fire_shoot</t>
+  </si>
+  <si>
+    <t>s2_30</t>
+  </si>
+  <si>
+    <t>char_fire_shoot_up</t>
+  </si>
+  <si>
+    <t>s2_31</t>
+  </si>
+  <si>
+    <t>char_fire_run</t>
+  </si>
+  <si>
+    <t>s2_32</t>
+  </si>
+  <si>
+    <t>s2_33</t>
+  </si>
+  <si>
+    <t>s2_34</t>
+  </si>
+  <si>
+    <t>char_fire_jump</t>
+  </si>
+  <si>
+    <t>s2_35</t>
+  </si>
+  <si>
+    <t>char_fire_flip</t>
+  </si>
+  <si>
+    <t>s2_36</t>
+  </si>
+  <si>
+    <t>s2_37</t>
+  </si>
+  <si>
+    <t>s2_38</t>
+  </si>
+  <si>
+    <t>s2_39</t>
+  </si>
+  <si>
+    <t>char_fire_roll</t>
+  </si>
+  <si>
+    <t>s2_40</t>
+  </si>
+  <si>
+    <t>s2_41</t>
+  </si>
+  <si>
+    <t>s2_42</t>
+  </si>
+  <si>
+    <t>s2_43</t>
+  </si>
+  <si>
+    <t>char_fire_run_shoot</t>
+  </si>
+  <si>
+    <t>s2_44</t>
+  </si>
+  <si>
+    <t>s2_45</t>
+  </si>
+  <si>
+    <t>s2_46</t>
+  </si>
+  <si>
+    <t>s2_47</t>
+  </si>
+  <si>
+    <t>char_fire_jump_shoot</t>
+  </si>
+  <si>
+    <t>s2_48</t>
+  </si>
+  <si>
+    <t>char_fire_run_shoot_up</t>
+  </si>
+  <si>
+    <t>s2_49</t>
+  </si>
+  <si>
+    <t>s2_50</t>
+  </si>
+  <si>
+    <t>s2_51</t>
+  </si>
+  <si>
+    <t>s2_52</t>
+  </si>
+  <si>
+    <t>char_fire_jump_shoot_up</t>
+  </si>
+  <si>
+    <t>s2_53</t>
+  </si>
+  <si>
+    <t>s2_54</t>
+  </si>
+  <si>
+    <t>bullet</t>
+  </si>
+  <si>
+    <t>s2_55</t>
+  </si>
+  <si>
+    <t>bomb</t>
+  </si>
+  <si>
+    <t>s2_56</t>
+  </si>
+  <si>
+    <t>s2_57</t>
+  </si>
+  <si>
+    <t>s2_58</t>
+  </si>
+  <si>
+    <t>s2_59</t>
+  </si>
+  <si>
+    <t>s2_60</t>
+  </si>
+  <si>
+    <t>boom</t>
+  </si>
+  <si>
+    <t>rocket</t>
+  </si>
+  <si>
+    <t>s2_61</t>
+  </si>
+  <si>
+    <t>rocket_up</t>
+  </si>
+  <si>
+    <t>s2_62</t>
+  </si>
+  <si>
+    <t>rocket_bullet</t>
+  </si>
+  <si>
+    <t>s2_63</t>
+  </si>
+  <si>
+    <t>s2_64</t>
+  </si>
+  <si>
+    <t>s2_65</t>
+  </si>
+  <si>
+    <t>s2_66</t>
+  </si>
+  <si>
+    <t>s2_67</t>
+  </si>
+  <si>
+    <t>s2_68</t>
+  </si>
+  <si>
+    <t>bomb_fire</t>
+  </si>
+  <si>
+    <t>s2_69</t>
+  </si>
+  <si>
+    <t>s2_70</t>
+  </si>
+  <si>
+    <t>boom_fire</t>
+  </si>
+  <si>
+    <t>s2_71</t>
+  </si>
+  <si>
+    <t>s2_72</t>
+  </si>
+  <si>
+    <t>s2_73</t>
+  </si>
+  <si>
+    <t>zoomer_orange_on</t>
+  </si>
+  <si>
+    <t>s3_0</t>
+  </si>
+  <si>
+    <t>s3_1</t>
+  </si>
+  <si>
+    <t>zoomer_orange_right</t>
+  </si>
+  <si>
+    <t>s3_2</t>
+  </si>
+  <si>
+    <t>s3_3</t>
+  </si>
+  <si>
+    <t>zoomer_orange_under</t>
+  </si>
+  <si>
+    <t>s3_4</t>
+  </si>
+  <si>
+    <t>s3_5</t>
+  </si>
+  <si>
+    <t>zoomer_orange_left</t>
+  </si>
+  <si>
+    <t>s3_6</t>
+  </si>
+  <si>
+    <t>s3_7</t>
+  </si>
+  <si>
+    <t>zoomer_pink_on</t>
+  </si>
+  <si>
+    <t>s3_8</t>
+  </si>
+  <si>
+    <t>s3_9</t>
+  </si>
+  <si>
+    <t>s3_10</t>
+  </si>
+  <si>
+    <t>s3_11</t>
+  </si>
+  <si>
+    <t>s3_12</t>
+  </si>
+  <si>
+    <t>s3_13</t>
+  </si>
+  <si>
+    <t>s3_14</t>
+  </si>
+  <si>
+    <t>s3_15</t>
+  </si>
+  <si>
+    <t>s3_16</t>
+  </si>
+  <si>
+    <t>s3_17</t>
+  </si>
+  <si>
+    <t>s3_18</t>
+  </si>
+  <si>
+    <t>s3_19</t>
+  </si>
+  <si>
+    <t>s3_20</t>
+  </si>
+  <si>
+    <t>s3_21</t>
+  </si>
+  <si>
+    <t>s3_22</t>
+  </si>
+  <si>
+    <t>s3_23</t>
+  </si>
+  <si>
+    <t>s3_24</t>
+  </si>
+  <si>
+    <t>s3_25</t>
+  </si>
+  <si>
+    <t>s3_26</t>
+  </si>
+  <si>
+    <t>s3_27</t>
+  </si>
+  <si>
+    <t>s3_28</t>
+  </si>
+  <si>
+    <t>s3_29</t>
+  </si>
+  <si>
+    <t>s3_30</t>
+  </si>
+  <si>
+    <t>s3_31</t>
+  </si>
+  <si>
+    <t>s3_32</t>
+  </si>
+  <si>
+    <t>s3_33</t>
+  </si>
+  <si>
+    <t>s3_34</t>
+  </si>
+  <si>
+    <t>s3_35</t>
+  </si>
+  <si>
+    <t>s3_36</t>
+  </si>
+  <si>
+    <t>s3_37</t>
+  </si>
+  <si>
+    <t>s3_38</t>
+  </si>
+  <si>
+    <t>s3_39</t>
+  </si>
+  <si>
+    <t>s3_40</t>
+  </si>
+  <si>
+    <t>skree_greenorange</t>
+  </si>
+  <si>
+    <t>s3_41</t>
+  </si>
+  <si>
+    <t>s3_42</t>
+  </si>
+  <si>
+    <t>s3_43</t>
+  </si>
+  <si>
+    <t>s3_44</t>
+  </si>
+  <si>
+    <t>s3_45</t>
+  </si>
+  <si>
+    <t>s3_46</t>
+  </si>
+  <si>
+    <t>skree_die</t>
+  </si>
+  <si>
+    <t>s3_47</t>
+  </si>
+  <si>
+    <t>s3_48</t>
+  </si>
+  <si>
+    <t>s3_49</t>
+  </si>
+  <si>
+    <t>s3_50</t>
+  </si>
+  <si>
+    <t>s3_51</t>
+  </si>
+  <si>
+    <t>s3_52</t>
+  </si>
+  <si>
+    <t>s3_53</t>
+  </si>
+  <si>
+    <t>s3_54</t>
+  </si>
+  <si>
+    <t>s3_55</t>
+  </si>
+  <si>
+    <t>ripper_orangeblue</t>
+  </si>
+  <si>
+    <t>s3_56</t>
+  </si>
+  <si>
+    <t>ripper_pink</t>
+  </si>
+  <si>
+    <t>s3_57</t>
+  </si>
+  <si>
+    <t>ripper_red</t>
+  </si>
+  <si>
+    <t>s3_58</t>
+  </si>
+  <si>
+    <t>ripper_orangepink</t>
+  </si>
+  <si>
+    <t>s3_59</t>
+  </si>
+  <si>
+    <t>ripper_freeze</t>
+  </si>
+  <si>
+    <t>s3_60</t>
+  </si>
+  <si>
+    <t>s3_61</t>
+  </si>
+  <si>
+    <t>s3_62</t>
+  </si>
+  <si>
+    <t>s3_63</t>
+  </si>
+  <si>
+    <t>s3_64</t>
+  </si>
+  <si>
+    <t>s3_65</t>
+  </si>
+  <si>
+    <t>s3_66</t>
+  </si>
+  <si>
+    <t>s3_67</t>
+  </si>
+  <si>
+    <t>s3_68</t>
+  </si>
+  <si>
+    <t>s3_69</t>
+  </si>
+  <si>
+    <t>s3_70</t>
+  </si>
+  <si>
+    <t>s3_71</t>
+  </si>
+  <si>
+    <t>s3_72</t>
+  </si>
+  <si>
+    <t>s3_73</t>
+  </si>
+  <si>
+    <t>s3_74</t>
+  </si>
+  <si>
+    <t>s3_75</t>
+  </si>
+  <si>
+    <t>s3_76</t>
+  </si>
+  <si>
+    <t>s3_77</t>
+  </si>
+  <si>
+    <t>s3_78</t>
+  </si>
+  <si>
+    <t>s3_79</t>
+  </si>
+  <si>
+    <t>s3_80</t>
+  </si>
+  <si>
+    <t>s3_81</t>
+  </si>
+  <si>
+    <t>s3_82</t>
+  </si>
+  <si>
+    <t>s3_83</t>
+  </si>
+  <si>
+    <t>s3_84</t>
+  </si>
+  <si>
+    <t>s3_85</t>
+  </si>
+  <si>
+    <t>s3_86</t>
+  </si>
+  <si>
+    <t>s3_87</t>
+  </si>
+  <si>
+    <t>s3_88</t>
+  </si>
+  <si>
+    <t>s3_89</t>
+  </si>
+  <si>
+    <t>s3_90</t>
+  </si>
+  <si>
+    <t>s3_91</t>
+  </si>
+  <si>
+    <t>s3_92</t>
+  </si>
+  <si>
+    <t>s3_93</t>
+  </si>
+  <si>
+    <t>s3_94</t>
+  </si>
+  <si>
+    <t>s3_95</t>
+  </si>
+  <si>
+    <t>s3_96</t>
+  </si>
+  <si>
+    <t>s3_97</t>
+  </si>
+  <si>
+    <t>s3_98</t>
+  </si>
+  <si>
+    <t>s3_99</t>
+  </si>
+  <si>
+    <t>s3_100</t>
+  </si>
+  <si>
+    <t>s3_101</t>
+  </si>
+  <si>
+    <t>s3_102</t>
+  </si>
+  <si>
+    <t>s3_103</t>
+  </si>
+  <si>
+    <t>s3_104</t>
+  </si>
+  <si>
+    <t>s3_105</t>
+  </si>
+  <si>
+    <t>s3_106</t>
+  </si>
+  <si>
+    <t>s3_107</t>
+  </si>
+  <si>
+    <t>s3_108</t>
+  </si>
+  <si>
+    <t>s3_109</t>
+  </si>
+  <si>
+    <t>s3_110</t>
+  </si>
+  <si>
+    <t>s3_111</t>
+  </si>
+  <si>
+    <t>s3_112</t>
+  </si>
+  <si>
+    <t>s3_113</t>
+  </si>
+  <si>
+    <t>s3_114</t>
+  </si>
+  <si>
+    <t>s3_115</t>
+  </si>
+  <si>
+    <t>s3_116</t>
+  </si>
+  <si>
+    <t>s3_117</t>
+  </si>
+  <si>
+    <t>s3_118</t>
+  </si>
+  <si>
+    <t>s3_119</t>
+  </si>
+  <si>
+    <t>s3_120</t>
+  </si>
+  <si>
+    <t>s3_121</t>
+  </si>
+  <si>
+    <t>s3_122</t>
+  </si>
+  <si>
+    <t>s3_123</t>
+  </si>
+  <si>
+    <t>s3_124</t>
+  </si>
+  <si>
+    <t>s3_125</t>
+  </si>
+  <si>
+    <t>s3_126</t>
+  </si>
+  <si>
+    <t>s3_127</t>
+  </si>
+  <si>
+    <t>s3_128</t>
+  </si>
+  <si>
+    <t>s3_129</t>
+  </si>
+  <si>
+    <t>s3_130</t>
+  </si>
+  <si>
+    <t>s3_131</t>
+  </si>
+  <si>
+    <t>s3_132</t>
+  </si>
+  <si>
+    <t>s3_133</t>
+  </si>
+  <si>
+    <t>s3_134</t>
+  </si>
+  <si>
+    <t>s3_135</t>
+  </si>
+  <si>
+    <t>s3_136</t>
+  </si>
+  <si>
+    <t>s3_137</t>
+  </si>
+  <si>
+    <t>s3_138</t>
+  </si>
+  <si>
+    <t>s3_139</t>
+  </si>
+  <si>
+    <t>s3_140</t>
+  </si>
+  <si>
+    <t>s3_141</t>
+  </si>
+  <si>
+    <t>s3_142</t>
+  </si>
+  <si>
+    <t>s3_143</t>
+  </si>
+  <si>
+    <t>s3_144</t>
+  </si>
+  <si>
+    <t>s3_145</t>
+  </si>
+  <si>
+    <t>s3_146</t>
+  </si>
+  <si>
+    <t>s3_147</t>
+  </si>
+  <si>
+    <t>s3_148</t>
+  </si>
+  <si>
+    <t>s3_149</t>
+  </si>
+  <si>
+    <t>s3_150</t>
+  </si>
+  <si>
+    <t>s3_151</t>
+  </si>
+  <si>
+    <t>s3_152</t>
+  </si>
+  <si>
+    <t>s3_153</t>
+  </si>
+  <si>
+    <t>s3_154</t>
+  </si>
+  <si>
+    <t>s3_155</t>
+  </si>
+  <si>
+    <t>s3_156</t>
+  </si>
+  <si>
+    <t>polyp</t>
+  </si>
+  <si>
+    <t>s3_157</t>
+  </si>
+  <si>
+    <t>polyp_bullet</t>
+  </si>
+  <si>
+    <t>s3_158</t>
+  </si>
+  <si>
+    <t>s3_159</t>
+  </si>
+  <si>
+    <t>s3_160</t>
+  </si>
+  <si>
+    <t>s3_161</t>
+  </si>
+  <si>
+    <t>s3_162</t>
+  </si>
+  <si>
+    <t>s3_163</t>
+  </si>
+  <si>
+    <t>s3_164</t>
+  </si>
+  <si>
+    <t>s3_165</t>
+  </si>
+  <si>
+    <t>s3_166</t>
+  </si>
+  <si>
+    <t>s3_167</t>
+  </si>
+  <si>
+    <t>s3_168</t>
+  </si>
+  <si>
+    <t>s3_169</t>
+  </si>
+  <si>
+    <t>s3_170</t>
+  </si>
+  <si>
+    <t>s3_171</t>
+  </si>
+  <si>
+    <t>s3_172</t>
+  </si>
+  <si>
+    <t>s3_173</t>
+  </si>
+  <si>
+    <t>s3_174</t>
+  </si>
+  <si>
+    <t>s3_175</t>
+  </si>
+  <si>
+    <t>zoomer_pink_right</t>
+  </si>
+  <si>
+    <t>zoomer_pink_under</t>
+  </si>
+  <si>
+    <t>zoomer_pink_left</t>
+  </si>
+  <si>
+    <t>zoomer_red_on</t>
+  </si>
+  <si>
+    <t>zoomer_red_right</t>
+  </si>
+  <si>
+    <t>zoomer_red_under</t>
+  </si>
+  <si>
+    <t>zoomer_red_left</t>
+  </si>
+  <si>
+    <t>zoomer_freeze_on</t>
+  </si>
+  <si>
+    <t>zoomer_freeze_right</t>
+  </si>
+  <si>
+    <t>zoomer_freeze_under</t>
+  </si>
+  <si>
+    <t>zoomer_freeze_left</t>
+  </si>
+  <si>
+    <t>skree_greenyellow_down</t>
+  </si>
+  <si>
+    <t>skree_green</t>
+  </si>
+  <si>
+    <t>skree_blue</t>
+  </si>
+  <si>
+    <t>skree_freeze</t>
+  </si>
+  <si>
+    <t>reo_greenyellow</t>
+  </si>
+  <si>
+    <t>reo_green</t>
+  </si>
+  <si>
+    <t>reo_blue</t>
+  </si>
+  <si>
+    <t>reo_freeze</t>
+  </si>
+  <si>
+    <t>mellow</t>
+  </si>
+  <si>
+    <t>waver_green</t>
+  </si>
+  <si>
+    <t>waver_blue</t>
+  </si>
+  <si>
+    <t>waver_freeze</t>
+  </si>
+  <si>
+    <t>zeb_orange</t>
+  </si>
+  <si>
+    <t>zeb_pink</t>
+  </si>
+  <si>
+    <t>zeb_red</t>
+  </si>
+  <si>
+    <t>zeb_freeze</t>
+  </si>
+  <si>
+    <t>geegas_orange</t>
+  </si>
+  <si>
+    <t>geegas_red</t>
+  </si>
+  <si>
+    <t>geegas_freeze</t>
+  </si>
+  <si>
+    <t>memus</t>
+  </si>
+  <si>
+    <t>melia</t>
+  </si>
+  <si>
+    <t>zeela_blue_up</t>
+  </si>
+  <si>
+    <t>zeela_blue_right</t>
+  </si>
+  <si>
+    <t>zeela_blue_under</t>
+  </si>
+  <si>
+    <t>zeela_blue_left</t>
+  </si>
+  <si>
+    <t>zeela_green_up</t>
+  </si>
+  <si>
+    <t>zeela_green_right</t>
+  </si>
+  <si>
+    <t>zeela_green_under</t>
+  </si>
+  <si>
+    <t>zeela_green_left</t>
+  </si>
+  <si>
+    <t>zeela_freeze_up</t>
+  </si>
+  <si>
+    <t>zeela_freeze_right</t>
+  </si>
+  <si>
+    <t>zeela_freeze_under</t>
+  </si>
+  <si>
+    <t>sidehopper_orange</t>
+  </si>
+  <si>
+    <t>sidehopper_red</t>
+  </si>
+  <si>
+    <t>sidehopper_freeze</t>
+  </si>
+  <si>
+    <t>geruta_red_up</t>
+  </si>
+  <si>
+    <t>geruta_red_down</t>
+  </si>
+  <si>
+    <t>geruta_purple_up</t>
+  </si>
+  <si>
+    <t>geruta_purple_down</t>
+  </si>
+  <si>
+    <t>geruta_freeze_up</t>
+  </si>
+  <si>
+    <t>geruta_freeze_down</t>
+  </si>
+  <si>
+    <t>nova_up</t>
+  </si>
+  <si>
+    <t>nova_right</t>
+  </si>
+  <si>
+    <t>nova_under</t>
+  </si>
+  <si>
+    <t>nova_left</t>
+  </si>
+  <si>
+    <t>nova_freeze_up</t>
+  </si>
+  <si>
+    <t>nova_freeze_right</t>
+  </si>
+  <si>
+    <t>nova_freeze_under</t>
+  </si>
+  <si>
+    <t>nova_freeze_left</t>
+  </si>
+  <si>
+    <t>zebbo_orange</t>
+  </si>
+  <si>
+    <t>zebbo_green</t>
+  </si>
+  <si>
+    <t>zebbo_freeze</t>
+  </si>
+  <si>
+    <t>squeept_purple</t>
+  </si>
+  <si>
+    <t>squeept_red</t>
+  </si>
+  <si>
+    <t>squeept_freeze</t>
+  </si>
+  <si>
+    <t>lavadragon_blue</t>
+  </si>
+  <si>
+    <t>lavadragon_pink</t>
+  </si>
+  <si>
+    <t>lavadragon_freeze</t>
+  </si>
+  <si>
+    <t>multiviola_red</t>
+  </si>
+  <si>
+    <t>HUD_number</t>
+  </si>
+  <si>
+    <t>s5_0</t>
+  </si>
+  <si>
+    <t>s5_1</t>
+  </si>
+  <si>
+    <t>s5_2</t>
+  </si>
+  <si>
+    <t>s5_3</t>
+  </si>
+  <si>
+    <t>s5_4</t>
+  </si>
+  <si>
+    <t>s5_5</t>
+  </si>
+  <si>
+    <t>s5_6</t>
+  </si>
+  <si>
+    <t>s5_7</t>
+  </si>
+  <si>
+    <t>s5_8</t>
+  </si>
+  <si>
+    <t>s5_9</t>
+  </si>
+  <si>
+    <t>HUD_EN</t>
+  </si>
+  <si>
+    <t>s5_10</t>
+  </si>
+  <si>
+    <t>HUD_rocket</t>
+  </si>
+  <si>
+    <t>s5_11</t>
+  </si>
+  <si>
+    <t>s1_0</t>
+  </si>
+  <si>
+    <t>s1_1</t>
+  </si>
+  <si>
+    <t>s1_2</t>
+  </si>
+  <si>
+    <t>s1_3</t>
+  </si>
+  <si>
+    <t>s1_4</t>
+  </si>
+  <si>
+    <t>s1_5</t>
+  </si>
+  <si>
+    <t>s1_6</t>
+  </si>
+  <si>
+    <t>s1_7</t>
+  </si>
+  <si>
+    <t>s1_8</t>
+  </si>
+  <si>
+    <t>s1_9</t>
+  </si>
+  <si>
+    <t>s1_10</t>
+  </si>
+  <si>
+    <t>s1_11</t>
+  </si>
+  <si>
+    <t>s1_12</t>
+  </si>
+  <si>
+    <t>s1_13</t>
+  </si>
+  <si>
+    <t>s1_14</t>
+  </si>
+  <si>
+    <t>s1_15</t>
+  </si>
+  <si>
+    <t>s1_16</t>
+  </si>
+  <si>
+    <t>s1_17</t>
+  </si>
+  <si>
+    <t>s1_18</t>
+  </si>
+  <si>
+    <t>s1_19</t>
+  </si>
+  <si>
+    <t>s1_20</t>
+  </si>
+  <si>
+    <t>s1_21</t>
+  </si>
+  <si>
+    <t>s1_22</t>
+  </si>
+  <si>
+    <t>s1_23</t>
+  </si>
+  <si>
+    <t>s1_24</t>
+  </si>
+  <si>
+    <t>s1_25</t>
+  </si>
+  <si>
+    <t>s1_26</t>
+  </si>
+  <si>
+    <t>s1_27</t>
+  </si>
+  <si>
+    <t>s1_28</t>
+  </si>
+  <si>
+    <t>s1_29</t>
+  </si>
+  <si>
+    <t>s1_30</t>
+  </si>
+  <si>
+    <t>s1_31</t>
+  </si>
+  <si>
+    <t>s1_32</t>
+  </si>
+  <si>
+    <t>s1_33</t>
+  </si>
+  <si>
+    <t>s1_34</t>
+  </si>
+  <si>
+    <t>s1_35</t>
+  </si>
+  <si>
+    <t>s1_36</t>
+  </si>
+  <si>
+    <t>s1_37</t>
+  </si>
+  <si>
+    <t>s1_38</t>
+  </si>
+  <si>
+    <t>s1_39</t>
+  </si>
+  <si>
+    <t>s1_40</t>
+  </si>
+  <si>
+    <t>s1_41</t>
+  </si>
+  <si>
+    <t>s1_42</t>
+  </si>
+  <si>
+    <t>s1_43</t>
+  </si>
+  <si>
+    <t>s1_44</t>
+  </si>
+  <si>
+    <t>s1_45</t>
+  </si>
+  <si>
+    <t>s1_46</t>
+  </si>
+  <si>
+    <t>s1_47</t>
+  </si>
+  <si>
+    <t>s1_48</t>
+  </si>
+  <si>
+    <t>s1_49</t>
+  </si>
+  <si>
+    <t>s1_50</t>
+  </si>
+  <si>
+    <t>s1_51</t>
+  </si>
+  <si>
+    <t>s1_52</t>
+  </si>
+  <si>
+    <t>s1_53</t>
+  </si>
+  <si>
+    <t>s1_54</t>
+  </si>
+  <si>
+    <t>s1_55</t>
+  </si>
+  <si>
+    <t>s1_56</t>
+  </si>
+  <si>
+    <t>s1_57</t>
+  </si>
+  <si>
+    <t>s1_58</t>
+  </si>
+  <si>
+    <t>s1_59</t>
+  </si>
+  <si>
+    <t>s1_60</t>
+  </si>
+  <si>
+    <t>s1_61</t>
+  </si>
+  <si>
+    <t>s1_62</t>
+  </si>
+  <si>
+    <t>s1_63</t>
+  </si>
+  <si>
+    <t>s1_64</t>
+  </si>
+  <si>
+    <t>s1_65</t>
+  </si>
+  <si>
+    <t>s1_66</t>
+  </si>
+  <si>
+    <t>s1_67</t>
+  </si>
+  <si>
+    <t>s1_68</t>
+  </si>
+  <si>
+    <t>Tile_0</t>
+  </si>
+  <si>
+    <t>Tile_1</t>
+  </si>
+  <si>
+    <t>Tile_2</t>
+  </si>
+  <si>
+    <t>Tile_3</t>
+  </si>
+  <si>
+    <t>Tile_4</t>
+  </si>
+  <si>
+    <t>Tile_5</t>
+  </si>
+  <si>
+    <t>Tile_6</t>
+  </si>
+  <si>
+    <t>Tile_7</t>
+  </si>
+  <si>
+    <t>Tile_8</t>
+  </si>
+  <si>
+    <t>Tile_9</t>
+  </si>
+  <si>
+    <t>Tile_10</t>
+  </si>
+  <si>
+    <t>Tile_11</t>
+  </si>
+  <si>
+    <t>Tile_12</t>
+  </si>
+  <si>
+    <t>Tile_13</t>
+  </si>
+  <si>
+    <t>Tile_14</t>
+  </si>
+  <si>
+    <t>Tile_15</t>
+  </si>
+  <si>
+    <t>Tile_16</t>
+  </si>
+  <si>
+    <t>Tile_17</t>
+  </si>
+  <si>
+    <t>Tile_18</t>
+  </si>
+  <si>
+    <t>Tile_19</t>
+  </si>
+  <si>
+    <t>Tile_20</t>
+  </si>
+  <si>
+    <t>Tile_21</t>
+  </si>
+  <si>
+    <t>Tile_22</t>
+  </si>
+  <si>
+    <t>Tile_23</t>
+  </si>
+  <si>
+    <t>Tile_24</t>
+  </si>
+  <si>
+    <t>Tile_25</t>
+  </si>
+  <si>
+    <t>Tile_26</t>
+  </si>
+  <si>
+    <t>Tile_27</t>
+  </si>
+  <si>
+    <t>Tile_28</t>
+  </si>
+  <si>
+    <t>Tile_29</t>
+  </si>
+  <si>
+    <t>Tile_30</t>
+  </si>
+  <si>
+    <t>Tile_31</t>
+  </si>
+  <si>
+    <t>Tile_32</t>
+  </si>
+  <si>
+    <t>Tile_33</t>
+  </si>
+  <si>
+    <t>Tile_34</t>
+  </si>
+  <si>
+    <t>Tile_35</t>
+  </si>
+  <si>
+    <t>Tile_36</t>
+  </si>
+  <si>
+    <t>Tile_37</t>
+  </si>
+  <si>
+    <t>Tile_38</t>
+  </si>
+  <si>
+    <t>Tile_39</t>
+  </si>
+  <si>
+    <t>Tile_40</t>
+  </si>
+  <si>
+    <t>Tile_41</t>
+  </si>
+  <si>
+    <t>Tile_42</t>
+  </si>
+  <si>
+    <t>Tile_43</t>
+  </si>
+  <si>
+    <t>Tile_44</t>
+  </si>
+  <si>
+    <t>Tile_45</t>
+  </si>
+  <si>
+    <t>Tile_46</t>
+  </si>
+  <si>
+    <t>Tile_47</t>
+  </si>
+  <si>
+    <t>Tile_48</t>
+  </si>
+  <si>
+    <t>Tile_49</t>
+  </si>
+  <si>
+    <t>Tile_50</t>
+  </si>
+  <si>
+    <t>Tile_51</t>
+  </si>
+  <si>
+    <t>Tile_52</t>
+  </si>
+  <si>
+    <t>Tile_53</t>
+  </si>
+  <si>
+    <t>Tile_54</t>
+  </si>
+  <si>
+    <t>Tile_55</t>
+  </si>
+  <si>
+    <t>Tile_56</t>
+  </si>
+  <si>
+    <t>Tile_57</t>
+  </si>
+  <si>
+    <t>Tile_58</t>
+  </si>
+  <si>
+    <t>Tile_59</t>
+  </si>
+  <si>
+    <t>Tile_60</t>
+  </si>
+  <si>
+    <t>Tile_61</t>
+  </si>
+  <si>
+    <t>Tile_62</t>
+  </si>
+  <si>
+    <t>Tile_63</t>
+  </si>
+  <si>
+    <t>Tile_64</t>
+  </si>
+  <si>
+    <t>Tile_65</t>
+  </si>
+  <si>
+    <t>Tile_66</t>
+  </si>
+  <si>
+    <t>Tile_67</t>
+  </si>
+  <si>
+    <t>Tile_68</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -107,7 +1666,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,17 +1674,417 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -168,52 +2127,179 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema2">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="data-set">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="SPRITE" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Count" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Clip0" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Clip1" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Clip2" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Clip3" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Clip4" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Clip5" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema3">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="data-set">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="SPRITE" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Count" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Clip0" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Clip1" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Clip2" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Clip3" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Clip4" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Clip5" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema5">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="data-set">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" nillable="true" name="SPRITE" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Count" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Clip0" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Clip1" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="1" Name="data-set_Map" RootElement="data-set" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="2" Name="data-set_Map1" RootElement="data-set" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="3" Name="data-set_Map2" RootElement="data-set" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="5" Name="data-set_Map3" RootElement="data-set" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="4" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L3" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L95" tableType="xml" totalsRowShown="0" connectionId="5">
+  <autoFilter ref="A1:L95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" uniqueName="Name" name="name">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Name" name="name">
       <xmlColumnPr mapId="1" xpath="/data-set/SPRITE/Name" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Count" name="count">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Count" name="count">
       <xmlColumnPr mapId="1" xpath="/data-set/SPRITE/Count" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Clip0" name="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="Clip0" name="0" dataDxfId="20">
       <xmlColumnPr mapId="1" xpath="/data-set/SPRITE/Clip0" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Clip1" name="1">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="Clip1" name="1" dataDxfId="19">
       <xmlColumnPr mapId="1" xpath="/data-set/SPRITE/Clip1" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Clip2" name="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="Clip2" name="2" dataDxfId="18">
       <xmlColumnPr mapId="1" xpath="/data-set/SPRITE/Clip2" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Clip3" name="3">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="Clip3" name="3">
       <xmlColumnPr mapId="1" xpath="/data-set/SPRITE/Clip3" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Clip4" name="4">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="Clip4" name="4">
       <xmlColumnPr mapId="1" xpath="/data-set/SPRITE/Clip4" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Clip5" name="5">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="Clip5" name="5">
       <xmlColumnPr mapId="1" xpath="/data-set/SPRITE/Clip5" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Clip6" name="6">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="Clip6" name="6">
       <xmlColumnPr mapId="1" xpath="/data-set/SPRITE/Clip6" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Clip7" name="7">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="Clip7" name="7">
       <xmlColumnPr mapId="1" xpath="/data-set/SPRITE/Clip7" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Clip8" name="8">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="Clip8" name="8">
       <xmlColumnPr mapId="1" xpath="/data-set/SPRITE/Clip8" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Clip9" name="9">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="Clip9" name="9">
       <xmlColumnPr mapId="1" xpath="/data-set/SPRITE/Clip9" xmlDataType="integer"/>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A923B184-A47C-44A7-B66F-1EC5396A69D3}" name="Table2" displayName="Table2" ref="A1:H86" tableType="xml" totalsRowShown="0" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A1:H86" xr:uid="{0EF20E3B-9EEA-486C-AE00-B949AB9638B2}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{87E6D3C2-F61C-432F-B80B-A7956C0331A9}" uniqueName="Name" name="name" dataDxfId="16">
+      <xmlColumnPr mapId="2" xpath="/data-set/SPRITE/Name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{47B1B1EF-1879-41A9-AE52-E32D06D1146C}" uniqueName="Count" name="count" dataDxfId="15">
+      <xmlColumnPr mapId="2" xpath="/data-set/SPRITE/Count" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{52AEF603-7C2F-4AAE-BD68-5220D7447FBB}" uniqueName="Clip0" name="0" dataDxfId="14">
+      <xmlColumnPr mapId="2" xpath="/data-set/SPRITE/Clip0" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{082577C1-B625-4247-B020-20D1AC7B76C8}" uniqueName="Clip1" name="1" dataDxfId="13">
+      <xmlColumnPr mapId="2" xpath="/data-set/SPRITE/Clip1" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E87ED99A-26EB-49FE-9725-41D60F2EB2DE}" uniqueName="Clip2" name="2" dataDxfId="12">
+      <xmlColumnPr mapId="2" xpath="/data-set/SPRITE/Clip2" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{20D900B1-4326-4CD3-998F-F56BD5C4666E}" uniqueName="Clip3" name="3" dataDxfId="11">
+      <xmlColumnPr mapId="2" xpath="/data-set/SPRITE/Clip3" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9CF556F3-1BBD-4DEF-9AA4-8C3E831EA432}" uniqueName="Clip4" name="4" dataDxfId="10">
+      <xmlColumnPr mapId="2" xpath="/data-set/SPRITE/Clip4" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{1F06B255-20FE-4721-85BA-B0D87650DFDD}" uniqueName="Clip5" name="5" dataDxfId="9">
+      <xmlColumnPr mapId="2" xpath="/data-set/SPRITE/Clip5" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{426BA866-D95D-4673-8B17-87C63B13A1F3}" name="Table3" displayName="Table3" ref="A1:H4" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H4" xr:uid="{64AE1636-BC49-4225-9C03-8B6CA9298BE7}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7E64FBAC-C151-4FF5-8145-D40E21D0D225}" name="name" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F246ADC1-46B8-46CE-A1FD-CF711943AE22}" name="count" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F5749DAB-0F5D-48BE-B857-6B5E2CCFB638}" name="0" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C750686D-5C83-40BC-8C1E-34F760D5C536}" name="1" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{8DD37AA7-633B-4006-9EAD-5E8ABC8CF359}" name="2" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{FE7483DB-4A4C-4498-8633-D375D4E6F34A}" name="3" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{DC2A9EF6-7E96-4BC3-97AB-AC9AB543F5B4}" name="4" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{FB70ED13-E1A9-4A5E-B0D1-859976FBE1B5}" name="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -481,134 +2567,3541 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L199"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="35" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="36" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="37" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="38" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="39" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="40" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="41" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="42" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="43" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="44" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="45" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="46" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="47" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="48" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="50" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="51" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="52" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="53" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="54" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="55" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="56" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="57" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="58" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="59" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="60" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="61" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="62" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="63" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="64" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="65" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="66" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="67" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="68" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="69" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="70" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="71" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="72" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="73" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="74" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="76" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="77" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="78" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="79" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="80" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="81" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="82" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="83" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="84" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="85" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="86" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="87" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="88" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="89" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="90" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="91" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="92" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="94" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="95" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="96" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="97" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="98" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="99" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="100" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="101" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="102" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="103" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="104" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="105" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="106" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="107" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="108" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="109" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="110" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="111" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="112" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="113" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="114" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="115" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="116" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="117" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="118" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="119" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="120" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="121" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="122" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="123" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="124" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="125" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="126" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="127" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="128" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA77550-F472-42B8-9CED-13C8522AB550}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="39.875" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62E9B33-44E3-430C-8433-7CD92727C56B}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:L86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="3.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B34" s="6">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" s="6">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B36" s="6">
+        <v>3</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B37" s="6">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B38" s="6">
+        <v>2</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B39" s="6">
+        <v>2</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B40" s="6">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B41" s="6">
+        <v>2</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" s="6">
+        <v>2</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B44" s="6">
+        <v>2</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45" s="6">
+        <v>2</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="6">
+        <v>2</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B47" s="6">
+        <v>2</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B48" s="6">
+        <v>2</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B49" s="6">
+        <v>2</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B50" s="6">
+        <v>2</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B52" s="6">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" s="6">
+        <v>2</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B54" s="6">
+        <v>2</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="6">
+        <v>2</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B56" s="6">
+        <v>2</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B57" s="6">
+        <v>2</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B58" s="6">
+        <v>3</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B59" s="6">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B60" s="6">
+        <v>3</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B61" s="6">
+        <v>2</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B62" s="6">
+        <v>2</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="6">
+        <v>2</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B64" s="6">
+        <v>2</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B65" s="6">
+        <v>2</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B66" s="6">
+        <v>2</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B67" s="6">
+        <v>2</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B68" s="6">
+        <v>2</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B69" s="6">
+        <v>2</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B70" s="6">
+        <v>2</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B71" s="6">
+        <v>2</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B72" s="6">
+        <v>2</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B73" s="6">
+        <v>2</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74" s="6">
+        <v>2</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B75" s="6">
+        <v>2</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B76" s="6">
+        <v>2</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B77" s="6">
+        <v>2</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B78" s="6">
+        <v>1</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B79" s="6">
+        <v>1</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B80" s="6">
+        <v>3</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B81" s="6">
+        <v>3</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B82" s="6">
+        <v>3</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B83" s="6">
+        <v>2</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B84" s="6">
+        <v>2</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B85" s="6">
+        <v>2</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B86" s="6">
+        <v>2</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE92C7CB-01A9-4636-897E-44DA5850DE9C}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="4.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" s="6">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
